--- a/pcb/docs/BOM_PCBWay.xlsx
+++ b/pcb/docs/BOM_PCBWay.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -347,7 +346,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,20 +375,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -492,9 +487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,8 +502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9360" y="209520"/>
-          <a:ext cx="1456920" cy="375840"/>
+          <a:off x="9360" y="209880"/>
+          <a:ext cx="1359720" cy="375480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -530,11 +525,11 @@
   </sheetPr>
   <dimension ref="A2:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.38"/>
@@ -542,7 +537,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
@@ -602,43 +597,43 @@
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="0"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
@@ -648,130 +643,130 @@
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -794,8 +789,8 @@
     <hyperlink ref="A17" r:id="rId2" display="Click for Instructions on How to Create a BOM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -811,38 +806,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
